--- a/reports/Report.xlsx
+++ b/reports/Report.xlsx
@@ -1,54 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6lady\OneDrive\Escritorio\PRACTICAUDEC\python\reports\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8396BA8-DA84-4C12-9915-B7DE55294023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A9884530-E9AC-4A70-BE5D-68F4E019D165}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Reporte" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -67,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -401,13 +440,2658 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3DF6BA4-623D-4EE8-A31D-AC5E048C54EF}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B327"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Half pore width</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>dV()</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.00314</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.5875</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.00314</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.6125</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.00314</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1.6375</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.00314</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.6625</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.00314</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1.6875</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.00314</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.7125</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.00314</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.7375</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.00314</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.7625</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.00314</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1.7875</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.00314</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1.8125</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.00314</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1.8375</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.00314</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1.8625</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1.8875</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1.9125</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1.9375</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1.9625</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1.9875</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2.0125</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2.0375</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2.0625</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2.0875</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2.1125</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2.1375</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2.1625</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2.1875</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2.2125</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2.2375</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2.2625</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2.2875</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2.3125</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2.3375</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2.3625</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2.3875</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2.4125</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2.4375</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2.4625</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2.4875</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2.5125</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2.5375</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2.5625</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2.5875</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>2.6125</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2.6375</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2.6625</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2.6875</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2.7125</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2.7375</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2.7625</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2.7875</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2.8125</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>2.8375</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>2.8625</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>2.8875</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>2.9125</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>2.9375</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>2.9625</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>2.9875</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>3.0125</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>3.0375</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1e-05</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>3.0625</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1e-05</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>3.0875</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1e-05</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>3.1125</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1e-05</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>3.1375</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1e-05</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>3.1625</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1e-05</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>3.1875</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1e-05</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>3.2125</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1e-05</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>3.2375</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1e-05</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>3.2625</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1e-05</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>3.2875</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1e-05</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>3.3125</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1e-05</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>3.3375</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1e-05</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>3.3625</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1e-05</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>3.3875</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1e-05</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>3.4125</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1e-05</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>3.4375</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1e-05</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>3.4625</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1e-05</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>3.4875</v>
+      </c>
+      <c r="B79" t="n">
+        <v>2e-05</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>3.5125</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2e-05</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>3.5375</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2e-05</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>3.5625</v>
+      </c>
+      <c r="B82" t="n">
+        <v>2e-05</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>3.5875</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2e-05</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>3.6125</v>
+      </c>
+      <c r="B84" t="n">
+        <v>2e-05</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>3.6375</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2e-05</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>3.6625</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2e-05</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>3.6875</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2e-05</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>3.7125</v>
+      </c>
+      <c r="B88" t="n">
+        <v>2e-05</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>3.7375</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2e-05</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>3.7625</v>
+      </c>
+      <c r="B90" t="n">
+        <v>3e-05</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>3.7875</v>
+      </c>
+      <c r="B91" t="n">
+        <v>3e-05</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>3.8125</v>
+      </c>
+      <c r="B92" t="n">
+        <v>3e-05</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>3.8375</v>
+      </c>
+      <c r="B93" t="n">
+        <v>3e-05</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>3.8625</v>
+      </c>
+      <c r="B94" t="n">
+        <v>3e-05</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>3.8875</v>
+      </c>
+      <c r="B95" t="n">
+        <v>3e-05</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>3.9125</v>
+      </c>
+      <c r="B96" t="n">
+        <v>3e-05</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>3.9375</v>
+      </c>
+      <c r="B97" t="n">
+        <v>3e-05</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>3.9625</v>
+      </c>
+      <c r="B98" t="n">
+        <v>3e-05</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>3.9875</v>
+      </c>
+      <c r="B99" t="n">
+        <v>4e-05</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>4.0125</v>
+      </c>
+      <c r="B100" t="n">
+        <v>4e-05</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>4.0375</v>
+      </c>
+      <c r="B101" t="n">
+        <v>4e-05</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>4.0625</v>
+      </c>
+      <c r="B102" t="n">
+        <v>4e-05</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>4.0875</v>
+      </c>
+      <c r="B103" t="n">
+        <v>4e-05</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>4.1125</v>
+      </c>
+      <c r="B104" t="n">
+        <v>4e-05</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>4.1375</v>
+      </c>
+      <c r="B105" t="n">
+        <v>4e-05</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>4.1625</v>
+      </c>
+      <c r="B106" t="n">
+        <v>4e-05</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>4.1875</v>
+      </c>
+      <c r="B107" t="n">
+        <v>5e-05</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>4.2125</v>
+      </c>
+      <c r="B108" t="n">
+        <v>5e-05</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>4.2375</v>
+      </c>
+      <c r="B109" t="n">
+        <v>5e-05</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>4.2625</v>
+      </c>
+      <c r="B110" t="n">
+        <v>5e-05</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>4.2875</v>
+      </c>
+      <c r="B111" t="n">
+        <v>5e-05</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>4.3125</v>
+      </c>
+      <c r="B112" t="n">
+        <v>5e-05</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>4.3375</v>
+      </c>
+      <c r="B113" t="n">
+        <v>5e-05</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>4.3625</v>
+      </c>
+      <c r="B114" t="n">
+        <v>5e-05</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>4.3875</v>
+      </c>
+      <c r="B115" t="n">
+        <v>6e-05</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>4.4125</v>
+      </c>
+      <c r="B116" t="n">
+        <v>6e-05</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>4.4375</v>
+      </c>
+      <c r="B117" t="n">
+        <v>6e-05</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>4.4625</v>
+      </c>
+      <c r="B118" t="n">
+        <v>6e-05</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>4.4875</v>
+      </c>
+      <c r="B119" t="n">
+        <v>6e-05</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>4.5125</v>
+      </c>
+      <c r="B120" t="n">
+        <v>6e-05</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>4.5375</v>
+      </c>
+      <c r="B121" t="n">
+        <v>6e-05</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>4.5625</v>
+      </c>
+      <c r="B122" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>4.5875</v>
+      </c>
+      <c r="B123" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>4.6125</v>
+      </c>
+      <c r="B124" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>4.6375</v>
+      </c>
+      <c r="B125" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>4.6625</v>
+      </c>
+      <c r="B126" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>4.6875</v>
+      </c>
+      <c r="B127" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>4.7125</v>
+      </c>
+      <c r="B128" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>4.7375</v>
+      </c>
+      <c r="B129" t="n">
+        <v>8.000000000000001e-05</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>4.7625</v>
+      </c>
+      <c r="B130" t="n">
+        <v>8.000000000000001e-05</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>4.7875</v>
+      </c>
+      <c r="B131" t="n">
+        <v>8.000000000000001e-05</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>4.8125</v>
+      </c>
+      <c r="B132" t="n">
+        <v>8.000000000000001e-05</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>4.8375</v>
+      </c>
+      <c r="B133" t="n">
+        <v>8.000000000000001e-05</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>4.8625</v>
+      </c>
+      <c r="B134" t="n">
+        <v>8.000000000000001e-05</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>4.8875</v>
+      </c>
+      <c r="B135" t="n">
+        <v>8.000000000000001e-05</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>4.9125</v>
+      </c>
+      <c r="B136" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>4.9375</v>
+      </c>
+      <c r="B137" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>4.9625</v>
+      </c>
+      <c r="B138" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>4.9875</v>
+      </c>
+      <c r="B139" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>5.0125</v>
+      </c>
+      <c r="B140" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>5.0375</v>
+      </c>
+      <c r="B141" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>5.0625</v>
+      </c>
+      <c r="B142" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>5.0875</v>
+      </c>
+      <c r="B143" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>5.1125</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>5.1375</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>5.1625</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>5.1875</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>5.2125</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>5.2375</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>5.2625</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>5.2875</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.00011</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>5.3125</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.00011</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>5.3375</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.00011</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>5.3625</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.00011</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>5.3875</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.00011</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>5.4125</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.00011</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>5.4375</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.00011</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>5.4625</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.00011</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>5.4875</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.00012</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>5.5125</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.00012</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>5.5375</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.00012</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>5.5625</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.00012</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>5.5875</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.00012</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>5.6125</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.00012</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>5.6375</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.00012</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>5.6625</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.00012</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>5.6875</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.00013</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>5.7125</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.00013</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>5.7375</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.00013</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>5.7625</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.00013</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>5.7875</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.00013</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>5.8125</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.00013</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>5.8375</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.00013</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>5.8625</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.00013</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>5.8875</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.00013</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>5.9125</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.00014</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>5.9375</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.00014</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>5.9625</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.00014</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>5.9875</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.00014</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>6.0125</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.00014</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>6.0375</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.00014</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>6.0625</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.00014</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>6.0875</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.00014</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>6.1125</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.00014</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>6.1375</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.00014</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>6.1625</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.00015</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>6.1875</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.00015</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>6.2125</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.00015</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>6.2375</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.00015</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>6.2625</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.00015</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>6.2875</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.00015</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>6.3125</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.00015</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>6.3375</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.00015</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>6.3625</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.00015</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>6.3875</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.00015</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>6.4125</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.00015</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>6.4375</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>6.4625</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>6.4875</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>6.5125</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>6.5375</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>6.5625</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>6.5875</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>6.6125</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>6.6375</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>6.6625</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>6.6875</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>6.7125</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>6.7375</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>6.7625</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0.00017</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>6.7875</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.00017</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>6.8125</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0.00017</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>6.8375</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0.00017</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>6.8625</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0.00017</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>6.8875</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0.00017</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>6.9125</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0.00017</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>6.9375</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0.00017</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>6.9625</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0.00017</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>6.9875</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0.00017</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>7.0125</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0.00017</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>7.0375</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0.00017</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>7.0625</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0.00017</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>7.0875</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0.00017</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>7.1125</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0.00017</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>7.1375</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0.00017</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>7.1625</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0.00018</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>7.1875</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0.00018</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>7.2125</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0.00018</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>7.2375</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0.00018</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>7.2625</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0.00018</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>7.2875</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0.00018</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>7.3125</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0.00018</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>7.3375</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0.00018</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>7.3625</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0.00018</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>7.3875</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0.00018</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>7.4125</v>
+      </c>
+      <c r="B236" t="n">
+        <v>0.00018</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>7.4375</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0.00018</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>7.4625</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0.00018</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>7.4875</v>
+      </c>
+      <c r="B239" t="n">
+        <v>0.00018</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>7.5125</v>
+      </c>
+      <c r="B240" t="n">
+        <v>0.00018</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>7.5375</v>
+      </c>
+      <c r="B241" t="n">
+        <v>0.00018</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>7.5625</v>
+      </c>
+      <c r="B242" t="n">
+        <v>0.00018</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>7.5875</v>
+      </c>
+      <c r="B243" t="n">
+        <v>0.00018</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>7.6125</v>
+      </c>
+      <c r="B244" t="n">
+        <v>0.00018</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>7.6375</v>
+      </c>
+      <c r="B245" t="n">
+        <v>0.00018</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>7.6625</v>
+      </c>
+      <c r="B246" t="n">
+        <v>0.00018</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>7.6875</v>
+      </c>
+      <c r="B247" t="n">
+        <v>0.00018</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>7.7125</v>
+      </c>
+      <c r="B248" t="n">
+        <v>0.00019</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>7.7375</v>
+      </c>
+      <c r="B249" t="n">
+        <v>0.00019</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>7.7625</v>
+      </c>
+      <c r="B250" t="n">
+        <v>0.00019</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>7.7875</v>
+      </c>
+      <c r="B251" t="n">
+        <v>0.00019</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>7.8125</v>
+      </c>
+      <c r="B252" t="n">
+        <v>0.00019</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>7.8375</v>
+      </c>
+      <c r="B253" t="n">
+        <v>0.00019</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>7.8625</v>
+      </c>
+      <c r="B254" t="n">
+        <v>0.00019</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>7.8875</v>
+      </c>
+      <c r="B255" t="n">
+        <v>0.00019</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>7.9125</v>
+      </c>
+      <c r="B256" t="n">
+        <v>0.00018</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>7.9375</v>
+      </c>
+      <c r="B257" t="n">
+        <v>0.00018</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>7.9625</v>
+      </c>
+      <c r="B258" t="n">
+        <v>0.00018</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>7.9875</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0.00018</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>8.012499999999999</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0.00018</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>8.0375</v>
+      </c>
+      <c r="B261" t="n">
+        <v>0.00018</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>8.0625</v>
+      </c>
+      <c r="B262" t="n">
+        <v>0.00018</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>8.0875</v>
+      </c>
+      <c r="B263" t="n">
+        <v>0.00018</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>8.112500000000001</v>
+      </c>
+      <c r="B264" t="n">
+        <v>0.00018</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>8.137499999999999</v>
+      </c>
+      <c r="B265" t="n">
+        <v>0.00018</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>8.1625</v>
+      </c>
+      <c r="B266" t="n">
+        <v>0.00017</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>8.1875</v>
+      </c>
+      <c r="B267" t="n">
+        <v>0.00017</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>8.2125</v>
+      </c>
+      <c r="B268" t="n">
+        <v>0.00017</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>8.237500000000001</v>
+      </c>
+      <c r="B269" t="n">
+        <v>0.00017</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>8.262499999999999</v>
+      </c>
+      <c r="B270" t="n">
+        <v>0.00017</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>8.2875</v>
+      </c>
+      <c r="B271" t="n">
+        <v>0.00017</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>8.3125</v>
+      </c>
+      <c r="B272" t="n">
+        <v>0.00017</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>8.3375</v>
+      </c>
+      <c r="B273" t="n">
+        <v>0.00017</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>8.362500000000001</v>
+      </c>
+      <c r="B274" t="n">
+        <v>0.00017</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>8.387499999999999</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0.00017</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>8.4125</v>
+      </c>
+      <c r="B276" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>8.4375</v>
+      </c>
+      <c r="B277" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>8.4625</v>
+      </c>
+      <c r="B278" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>8.487500000000001</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>8.512499999999999</v>
+      </c>
+      <c r="B280" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>8.5375</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>8.5625</v>
+      </c>
+      <c r="B282" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>8.5875</v>
+      </c>
+      <c r="B283" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>8.612500000000001</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>8.637499999999999</v>
+      </c>
+      <c r="B285" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>8.6625</v>
+      </c>
+      <c r="B286" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>8.6875</v>
+      </c>
+      <c r="B287" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>8.7125</v>
+      </c>
+      <c r="B288" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>8.737500000000001</v>
+      </c>
+      <c r="B289" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>8.762499999999999</v>
+      </c>
+      <c r="B290" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>8.7875</v>
+      </c>
+      <c r="B291" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>8.8125</v>
+      </c>
+      <c r="B292" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>8.8375</v>
+      </c>
+      <c r="B293" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>8.862500000000001</v>
+      </c>
+      <c r="B294" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>8.887499999999999</v>
+      </c>
+      <c r="B295" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>8.9125</v>
+      </c>
+      <c r="B296" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>8.9375</v>
+      </c>
+      <c r="B297" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>8.9625</v>
+      </c>
+      <c r="B298" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>8.987500000000001</v>
+      </c>
+      <c r="B299" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>9.012499999999999</v>
+      </c>
+      <c r="B300" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>9.0375</v>
+      </c>
+      <c r="B301" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>9.0625</v>
+      </c>
+      <c r="B302" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>9.0875</v>
+      </c>
+      <c r="B303" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>9.112500000000001</v>
+      </c>
+      <c r="B304" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>9.137499999999999</v>
+      </c>
+      <c r="B305" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>9.1625</v>
+      </c>
+      <c r="B306" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>9.1875</v>
+      </c>
+      <c r="B307" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>9.2125</v>
+      </c>
+      <c r="B308" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>9.237500000000001</v>
+      </c>
+      <c r="B309" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>9.262499999999999</v>
+      </c>
+      <c r="B310" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>9.2875</v>
+      </c>
+      <c r="B311" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>9.3125</v>
+      </c>
+      <c r="B312" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>9.3375</v>
+      </c>
+      <c r="B313" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>9.362500000000001</v>
+      </c>
+      <c r="B314" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>9.387499999999999</v>
+      </c>
+      <c r="B315" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>9.4125</v>
+      </c>
+      <c r="B316" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>9.4375</v>
+      </c>
+      <c r="B317" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>9.4625</v>
+      </c>
+      <c r="B318" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>9.487500000000001</v>
+      </c>
+      <c r="B319" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>9.512499999999999</v>
+      </c>
+      <c r="B320" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>9.5375</v>
+      </c>
+      <c r="B321" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>9.5625</v>
+      </c>
+      <c r="B322" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>9.5875</v>
+      </c>
+      <c r="B323" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>9.612500000000001</v>
+      </c>
+      <c r="B324" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>9.637499999999999</v>
+      </c>
+      <c r="B325" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>9.6625</v>
+      </c>
+      <c r="B326" t="n">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>9.6875</v>
+      </c>
+      <c r="B327" t="n">
+        <v>0.00015</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>